--- a/team_specific_matrix/Maryland_A.xlsx
+++ b/team_specific_matrix/Maryland_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2033898305084746</v>
+        <v>0.2045454545454546</v>
       </c>
       <c r="C2">
-        <v>0.5338983050847458</v>
+        <v>0.5324675324675324</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0135593220338983</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1271186440677966</v>
+        <v>0.1282467532467532</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1220338983050848</v>
+        <v>0.1217532467532468</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.003003003003003003</v>
+        <v>0.002881844380403458</v>
       </c>
       <c r="C3">
-        <v>0.03303303303303303</v>
+        <v>0.03170028818443804</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04204204204204205</v>
+        <v>0.04034582132564841</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7537537537537538</v>
+        <v>0.7377521613832853</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1681681681681682</v>
+        <v>0.1873198847262248</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06315789473684211</v>
+        <v>0.06862745098039216</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.01052631578947368</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="P4">
-        <v>0.5894736842105263</v>
+        <v>0.5980392156862745</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3368421052631579</v>
+        <v>0.3235294117647059</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0821917808219178</v>
+        <v>0.08583690987124463</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0182648401826484</v>
+        <v>0.02360515021459228</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06164383561643835</v>
+        <v>0.06223175965665236</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2146118721461187</v>
+        <v>0.2124463519313305</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02968036529680365</v>
+        <v>0.03004291845493562</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1392694063926941</v>
+        <v>0.1330472103004292</v>
       </c>
       <c r="R6">
-        <v>0.05251141552511415</v>
+        <v>0.05150214592274678</v>
       </c>
       <c r="S6">
-        <v>0.4018264840182648</v>
+        <v>0.4012875536480687</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1400560224089636</v>
+        <v>0.1382113821138211</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02240896358543417</v>
+        <v>0.02168021680216802</v>
       </c>
       <c r="E7">
-        <v>0.008403361344537815</v>
+        <v>0.008130081300813009</v>
       </c>
       <c r="F7">
-        <v>0.06722689075630252</v>
+        <v>0.07046070460704607</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1372549019607843</v>
+        <v>0.1355013550135501</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03361344537815126</v>
+        <v>0.03523035230352303</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1288515406162465</v>
+        <v>0.1246612466124661</v>
       </c>
       <c r="R7">
-        <v>0.0896358543417367</v>
+        <v>0.09214092140921409</v>
       </c>
       <c r="S7">
-        <v>0.3725490196078431</v>
+        <v>0.3739837398373984</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0984759671746776</v>
+        <v>0.09790979097909791</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01758499413833529</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="E8">
-        <v>0.001172332942555686</v>
+        <v>0.0011001100110011</v>
       </c>
       <c r="F8">
-        <v>0.08206330597889801</v>
+        <v>0.0814081408140814</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1371629542790152</v>
+        <v>0.1342134213421342</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01992966002344666</v>
+        <v>0.0187018701870187</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1348182883939039</v>
+        <v>0.1408140814081408</v>
       </c>
       <c r="R8">
-        <v>0.08675263774912075</v>
+        <v>0.08580858085808581</v>
       </c>
       <c r="S8">
-        <v>0.4220398593200469</v>
+        <v>0.4202420242024202</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1223880597014925</v>
+        <v>0.116991643454039</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01791044776119403</v>
+        <v>0.01671309192200557</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06865671641791045</v>
+        <v>0.07520891364902507</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1402985074626866</v>
+        <v>0.1337047353760446</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01194029850746269</v>
+        <v>0.01949860724233983</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1641791044776119</v>
+        <v>0.1615598885793872</v>
       </c>
       <c r="R9">
-        <v>0.06567164179104477</v>
+        <v>0.06963788300835655</v>
       </c>
       <c r="S9">
-        <v>0.408955223880597</v>
+        <v>0.4066852367688022</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1067719152471957</v>
+        <v>0.1054502369668247</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02575820523473203</v>
+        <v>0.02567140600315956</v>
       </c>
       <c r="E10">
-        <v>0.0008309098462816784</v>
+        <v>0.0007898894154818325</v>
       </c>
       <c r="F10">
-        <v>0.07685916078105526</v>
+        <v>0.07622432859399685</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.126713751557956</v>
+        <v>0.1267772511848341</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02035729123390112</v>
+        <v>0.0193522906793049</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.196510178645617</v>
+        <v>0.1951026856240126</v>
       </c>
       <c r="R10">
-        <v>0.07685916078105526</v>
+        <v>0.07819905213270142</v>
       </c>
       <c r="S10">
-        <v>0.369339426672206</v>
+        <v>0.3724328593996841</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.150709219858156</v>
+        <v>0.152027027027027</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09219858156028368</v>
+        <v>0.08952702702702703</v>
       </c>
       <c r="K11">
-        <v>0.200354609929078</v>
+        <v>0.2010135135135135</v>
       </c>
       <c r="L11">
-        <v>0.5372340425531915</v>
+        <v>0.5371621621621622</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01950354609929078</v>
+        <v>0.02027027027027027</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7483870967741936</v>
+        <v>0.7353846153846154</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2</v>
+        <v>0.2123076923076923</v>
       </c>
       <c r="K12">
-        <v>0.00967741935483871</v>
+        <v>0.009230769230769232</v>
       </c>
       <c r="L12">
-        <v>0.01612903225806452</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02580645161290323</v>
+        <v>0.02769230769230769</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.75</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.25</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01978021978021978</v>
+        <v>0.01875</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1494505494505494</v>
+        <v>0.1520833333333333</v>
       </c>
       <c r="I15">
-        <v>0.05714285714285714</v>
+        <v>0.0625</v>
       </c>
       <c r="J15">
-        <v>0.3912087912087912</v>
+        <v>0.3916666666666667</v>
       </c>
       <c r="K15">
-        <v>0.06813186813186813</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.006593406593406593</v>
+        <v>0.00625</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.07252747252747253</v>
+        <v>0.07083333333333333</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2351648351648352</v>
+        <v>0.23125</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02762430939226519</v>
+        <v>0.02659574468085106</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1988950276243094</v>
+        <v>0.2021276595744681</v>
       </c>
       <c r="I16">
-        <v>0.0580110497237569</v>
+        <v>0.06117021276595744</v>
       </c>
       <c r="J16">
-        <v>0.3756906077348066</v>
+        <v>0.375</v>
       </c>
       <c r="K16">
-        <v>0.1104972375690608</v>
+        <v>0.1090425531914894</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02486187845303867</v>
+        <v>0.02393617021276596</v>
       </c>
       <c r="N16">
-        <v>0.002762430939226519</v>
+        <v>0.002659574468085106</v>
       </c>
       <c r="O16">
-        <v>0.06077348066298342</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1408839779005525</v>
+        <v>0.1356382978723404</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0174496644295302</v>
+        <v>0.01790281329923274</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1865771812080537</v>
+        <v>0.1867007672634271</v>
       </c>
       <c r="I17">
-        <v>0.08993288590604027</v>
+        <v>0.08951406649616368</v>
       </c>
       <c r="J17">
-        <v>0.4174496644295302</v>
+        <v>0.4168797953964195</v>
       </c>
       <c r="K17">
-        <v>0.08590604026845637</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02013422818791946</v>
+        <v>0.01918158567774936</v>
       </c>
       <c r="N17">
-        <v>0.001342281879194631</v>
+        <v>0.001278772378516624</v>
       </c>
       <c r="O17">
-        <v>0.0697986577181208</v>
+        <v>0.07033248081841433</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1114093959731544</v>
+        <v>0.1112531969309463</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01479289940828402</v>
+        <v>0.01939058171745152</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2159763313609467</v>
+        <v>0.221606648199446</v>
       </c>
       <c r="I18">
-        <v>0.09467455621301775</v>
+        <v>0.09418282548476455</v>
       </c>
       <c r="J18">
-        <v>0.3846153846153846</v>
+        <v>0.3739612188365651</v>
       </c>
       <c r="K18">
-        <v>0.1124260355029586</v>
+        <v>0.1135734072022161</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02071005917159763</v>
+        <v>0.01939058171745152</v>
       </c>
       <c r="N18">
-        <v>0.002958579881656805</v>
+        <v>0.002770083102493075</v>
       </c>
       <c r="O18">
-        <v>0.08875739644970414</v>
+        <v>0.09141274238227147</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.0650887573964497</v>
+        <v>0.06371191135734072</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01296528649100795</v>
+        <v>0.01347068145800317</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2116269343370974</v>
+        <v>0.2131537242472266</v>
       </c>
       <c r="I19">
-        <v>0.08030112923462986</v>
+        <v>0.08161648177496038</v>
       </c>
       <c r="J19">
-        <v>0.3822668339606859</v>
+        <v>0.383122028526149</v>
       </c>
       <c r="K19">
-        <v>0.1120869928900042</v>
+        <v>0.1113312202852615</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01547469677959013</v>
+        <v>0.0150554675118859</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07109995817649518</v>
+        <v>0.07052297939778129</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1141781681304893</v>
+        <v>0.1117274167987322</v>
       </c>
     </row>
   </sheetData>
